--- a/Opdracht 2/review van groep D/review-wesley.xlsx
+++ b/Opdracht 2/review van groep D/review-wesley.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>naam reviewer</t>
   </si>
@@ -44,9 +44,6 @@
     <t>g</t>
   </si>
   <si>
-    <t>Betere formattering</t>
-  </si>
-  <si>
     <t>Versie 2 zegt versie 1</t>
   </si>
   <si>
@@ -65,7 +62,16 @@
     <t>Punt 8. is geen functionele eis.</t>
   </si>
   <si>
-    <t>Elk punt waar moet of kan in staat is niet goed volgens Jasper.</t>
+    <t>Betere formattering van de namen</t>
+  </si>
+  <si>
+    <t>Vanaf punt 10. zijn oplossingen.</t>
+  </si>
+  <si>
+    <t>Punt 2 &amp; 3. zijn oplossingen.</t>
+  </si>
+  <si>
+    <t>Punt 4 is een oplossing.</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +489,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -497,7 +503,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -511,7 +517,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -525,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -539,7 +545,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -553,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -567,7 +573,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -581,15 +587,36 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>81</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9">
+        <v>81</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
